--- a/legendre_out/DATA/p2/p2CrossPoints.xlsx
+++ b/legendre_out/DATA/p2/p2CrossPoints.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,13 +385,13 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>8.113268794593698e-06</v>
+        <v>8.819466890209767e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.557230444141357e-07</v>
+        <v>2.732584666044602e-07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -401,13 +401,13 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>1.255631762718978e-05</v>
+        <v>1.37006068424099e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>3.941466168350198e-07</v>
+        <v>4.170296168476945e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -417,13 +417,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>1.488798819719439e-05</v>
+        <v>1.636278628159607e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.437730195637492e-07</v>
+        <v>4.758329176442646e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -433,13 +433,13 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.149721238313961e-05</v>
+        <v>2.301804380779223e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>5.948598376751771e-07</v>
+        <v>6.284033987358383e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -449,13 +449,13 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.286385637455729e-05</v>
+        <v>2.457784414984172e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>6.618932931825402e-07</v>
+        <v>7.004121895482014e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -465,13 +465,13 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.317333874030765e-05</v>
+        <v>2.475292241020945e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>6.694929422575146e-07</v>
+        <v>7.039681190690511e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -481,13 +481,13 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.642134738725539e-05</v>
+        <v>2.832189109232445e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>6.950634920780321e-07</v>
+        <v>7.360851201077147e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -497,13 +497,13 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>2.602101500302434e-05</v>
+        <v>2.776435269531485e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>6.664420235472989e-07</v>
+        <v>7.044738091859971e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -513,13 +513,13 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>2.371628480881717e-05</v>
+        <v>2.534494073666331e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.608296355423959e-07</v>
+        <v>6.977182087472301e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -529,13 +529,13 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>2.352088281438321e-05</v>
+        <v>2.520431388860458e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>6.585903892335093e-07</v>
+        <v>6.965169590460649e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>2.018631568601688e-05</v>
+        <v>2.156526024838602e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.570595952378164e-07</v>
+        <v>5.875956156724549e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -561,13 +561,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>1.53088389176712e-05</v>
+        <v>1.645567114102098e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.452429949146363e-07</v>
+        <v>4.745993324745952e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -577,13 +577,13 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>8.903510383757638e-06</v>
+        <v>9.426383791463163e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166507770211279e-07</v>
+        <v>3.231179092334539e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>1.257194803055668e-05</v>
+        <v>1.343808816174539e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.06059402603759e-07</v>
+        <v>4.257483861023175e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -609,13 +609,13 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>1.718842755372549e-05</v>
+        <v>1.842888605574057e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.416516277063854e-07</v>
+        <v>5.692894539346985e-07</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -625,13 +625,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>2.008277275412086e-05</v>
+        <v>2.155252168109817e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>6.094914618358822e-07</v>
+        <v>6.393865834049551e-07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -641,13 +641,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>2.359507167888329e-05</v>
+        <v>2.544972283929159e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>7.03992283865722e-07</v>
+        <v>7.402597106911302e-07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -657,13 +657,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>2.855669060265166e-05</v>
+        <v>3.063126991385826e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>8.100798182396709e-07</v>
+        <v>8.503517765502457e-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -673,13 +673,13 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>3.174475746026563e-05</v>
+        <v>3.438228707251985e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>9.189091481342365e-07</v>
+        <v>9.671723484894378e-07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -689,13 +689,13 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>4.853126916167463e-05</v>
+        <v>5.204495849027794e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.313844181883831e-06</v>
+        <v>1.38517177647849e-06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -705,13 +705,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001385392563365003</v>
+        <v>0.0001490038455283936</v>
       </c>
       <c r="C22" t="n">
-        <v>3.592253293287639e-06</v>
+        <v>3.793025049742925e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -721,13 +721,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0002172017375684555</v>
+        <v>0.000235419460155689</v>
       </c>
       <c r="C23" t="n">
-        <v>5.560938329378597e-06</v>
+        <v>5.930839104838835e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -737,13 +737,13 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003267242326053165</v>
+        <v>0.0003526277764173752</v>
       </c>
       <c r="C24" t="n">
-        <v>8.231237033102889e-06</v>
+        <v>8.751841031121204e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003315311776284231</v>
+        <v>0.0003570906411034677</v>
       </c>
       <c r="C25" t="n">
-        <v>8.120205811888306e-06</v>
+        <v>8.642330780705501e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -769,13 +769,13 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003070368430431036</v>
+        <v>0.0003319820970842881</v>
       </c>
       <c r="C26" t="n">
-        <v>7.670343780992542e-06</v>
+        <v>8.21263717148202e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -785,13 +785,13 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0002924368623851435</v>
+        <v>0.0003155382558392645</v>
       </c>
       <c r="C27" t="n">
-        <v>7.505426102205581e-06</v>
+        <v>7.969777537857187e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -801,13 +801,13 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0002936232125012682</v>
+        <v>0.0003170610168818279</v>
       </c>
       <c r="C28" t="n">
-        <v>7.522188443587795e-06</v>
+        <v>8.007486692738877e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -817,13 +817,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.000298227821964963</v>
+        <v>0.0003220918368906234</v>
       </c>
       <c r="C29" t="n">
-        <v>7.465839098660281e-06</v>
+        <v>7.978237266162684e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -833,13 +833,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.000287447617467634</v>
+        <v>0.0003106013382673095</v>
       </c>
       <c r="C30" t="n">
-        <v>7.222299348343078e-06</v>
+        <v>7.724826459839104e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -849,13 +849,13 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0002902475973755522</v>
+        <v>0.0003136114463312155</v>
       </c>
       <c r="C31" t="n">
-        <v>7.321313976229263e-06</v>
+        <v>7.80858519257057e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -865,13 +865,13 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0002875153780151965</v>
+        <v>0.0003122013164842701</v>
       </c>
       <c r="C32" t="n">
-        <v>7.351902158173862e-06</v>
+        <v>7.864577363540937e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -881,13 +881,13 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0002815379351541154</v>
+        <v>0.0003031872997426252</v>
       </c>
       <c r="C33" t="n">
-        <v>7.057457993535474e-06</v>
+        <v>7.501981045618106e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -897,13 +897,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002758098166696309</v>
+        <v>0.0002958728213515772</v>
       </c>
       <c r="C34" t="n">
-        <v>7.116230327939352e-06</v>
+        <v>7.489446212684108e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -913,13 +913,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002543289320453458</v>
+        <v>0.0002756422368554605</v>
       </c>
       <c r="C35" t="n">
-        <v>6.438335614329267e-06</v>
+        <v>6.891351751617953e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002311014576631897</v>
+        <v>0.0002507886519229948</v>
       </c>
       <c r="C36" t="n">
-        <v>5.826401056146153e-06</v>
+        <v>6.255735678294338e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -945,13 +945,13 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0001881065413277511</v>
+        <v>0.0002037966887689798</v>
       </c>
       <c r="C37" t="n">
-        <v>4.709668221128742e-06</v>
+        <v>5.038238927580641e-06</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001507538904569764</v>
+        <v>0.0001625640180041803</v>
       </c>
       <c r="C38" t="n">
-        <v>3.760565617795579e-06</v>
+        <v>4.005876271424973e-06</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -977,13 +977,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001007533066530208</v>
+        <v>0.0001093387107647033</v>
       </c>
       <c r="C39" t="n">
-        <v>2.5370039273538e-06</v>
+        <v>2.72664520485288e-06</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -993,13 +993,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001437785054931939</v>
+        <v>0.0001547238482059898</v>
       </c>
       <c r="C40" t="n">
-        <v>3.673364624470947e-06</v>
+        <v>3.889528123048973e-06</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1009,13 +1009,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>7.142307116721306e-05</v>
+        <v>7.733612038922368e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.862520336095129e-06</v>
+        <v>1.982670266193871e-06</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1025,13 +1025,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>4.90911907582069e-05</v>
+        <v>5.254329241434402e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.299337472379027e-06</v>
+        <v>1.363996147471463e-06</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1041,13 +1041,13 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.719163979242035e-05</v>
+        <v>4.015690477570473e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>9.984579482633211e-07</v>
+        <v>1.058994992869787e-06</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.281098860483391e-05</v>
+        <v>2.437577896705834e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>6.662927595243442e-07</v>
+        <v>6.952082861849813e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.009910944117843e-05</v>
+        <v>2.163067071527197e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6.177982581813627e-07</v>
+        <v>6.496904777191727e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>1.942661468846525e-05</v>
+        <v>2.06451480533105e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5.863931837926556e-07</v>
+        <v>6.070620557502889e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1105,13 +1105,13 @@
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.134873142683934e-05</v>
+        <v>2.257975869554907e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.117562947159795e-07</v>
+        <v>6.349661045738748e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1121,13 +1121,13 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.696075041649824e-05</v>
+        <v>2.872666827721698e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.382519707909985e-07</v>
+        <v>7.748762863726505e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1137,13 +1137,13 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>3.718886090500032e-05</v>
+        <v>3.960566927688777e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>9.847910836932516e-07</v>
+        <v>1.038370720591826e-06</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1153,13 +1153,13 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>5.38727348019823e-05</v>
+        <v>5.737043851205674e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.393633358394333e-06</v>
+        <v>1.472554845493506e-06</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>6.767823486783382e-05</v>
+        <v>7.198265129907533e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.686011172514885e-06</v>
+        <v>1.780575619537714e-06</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001271218455632619</v>
+        <v>0.0001352498170400256</v>
       </c>
       <c r="C52" t="n">
-        <v>3.288516673558152e-06</v>
+        <v>3.464896896038091e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1201,13 +1201,13 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0001996715335227166</v>
+        <v>0.0002122492029697301</v>
       </c>
       <c r="C53" t="n">
-        <v>5.006545085914123e-06</v>
+        <v>5.286357541593251e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1217,13 +1217,13 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004676636448372147</v>
+        <v>0.0004972155419920545</v>
       </c>
       <c r="C54" t="n">
-        <v>1.194818789396906e-05</v>
+        <v>1.258990909967028e-05</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1233,13 +1233,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0006993921326251547</v>
+        <v>0.0007438672839373054</v>
       </c>
       <c r="C55" t="n">
-        <v>1.740682342983751e-05</v>
+        <v>1.8395375399521e-05</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1249,13 +1249,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007376180551618678</v>
+        <v>0.0007843887507856526</v>
       </c>
       <c r="C56" t="n">
-        <v>1.801233384675751e-05</v>
+        <v>1.90800100575975e-05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005436608153274348</v>
+        <v>0.0005783773903470268</v>
       </c>
       <c r="C57" t="n">
-        <v>1.360651050198318e-05</v>
+        <v>1.437827664721859e-05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002582132325547984</v>
+        <v>0.0002748446504791263</v>
       </c>
       <c r="C58" t="n">
-        <v>6.550463018530956e-06</v>
+        <v>6.937299496572314e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0001901613894313775</v>
+        <v>0.0002022209540902729</v>
       </c>
       <c r="C59" t="n">
-        <v>4.880913394549753e-06</v>
+        <v>5.149377275988459e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1313,13 +1313,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002537065531717815</v>
+        <v>0.0002699026568578708</v>
       </c>
       <c r="C60" t="n">
-        <v>6.34555455798798e-06</v>
+        <v>6.709862081316827e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1329,13 +1329,13 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>9.784723319493234e-05</v>
+        <v>0.0001041929469791144</v>
       </c>
       <c r="C61" t="n">
-        <v>2.568396732861742e-06</v>
+        <v>2.707041608326485e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1345,13 +1345,13 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>6.541627210901147e-05</v>
+        <v>6.970988166146895e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.681627057219709e-06</v>
+        <v>1.779469663511409e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1361,13 +1361,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.701413748868466e-05</v>
+        <v>3.960937796738595e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.020005218294928e-06</v>
+        <v>1.075470602771379e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>2.804340436455082e-05</v>
+        <v>2.972672538263759e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>7.85476726273211e-07</v>
+        <v>8.134010711668426e-07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1393,13 +1393,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>6.238147328990049e-05</v>
+        <v>6.677063701810879e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.681617217126348e-06</v>
+        <v>1.765530684130124e-06</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001832719352931785</v>
+        <v>0.0001979794688041133</v>
       </c>
       <c r="C66" t="n">
-        <v>4.750635583020969e-06</v>
+        <v>5.055291760255296e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1425,13 +1425,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>0.00032238499165387</v>
+        <v>0.0003453614786437249</v>
       </c>
       <c r="C67" t="n">
-        <v>8.005853936710199e-06</v>
+        <v>8.475014244582796e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1441,13 +1441,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0005859235168474056</v>
+        <v>0.0006289319120197563</v>
       </c>
       <c r="C68" t="n">
-        <v>1.457699691344295e-05</v>
+        <v>1.548689705888168e-05</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1457,13 +1457,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0005868989744979476</v>
+        <v>0.0006294391165801579</v>
       </c>
       <c r="C69" t="n">
-        <v>1.39787030335255e-05</v>
+        <v>1.489418799343988e-05</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1473,13 +1473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001022200504480621</v>
+        <v>0.001092722813166369</v>
       </c>
       <c r="C70" t="n">
-        <v>2.464978196397956e-05</v>
+        <v>2.612035394116662e-05</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001134721938662179</v>
+        <v>0.001212965680799035</v>
       </c>
       <c r="C71" t="n">
-        <v>2.826983603421669e-05</v>
+        <v>2.989252126052829e-05</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1505,13 +1505,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001471331078209042</v>
+        <v>0.001567189909033125</v>
       </c>
       <c r="C72" t="n">
-        <v>3.286615423170997e-05</v>
+        <v>3.498084166308145e-05</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1521,13 +1521,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002230034727262287</v>
+        <v>0.002370968634621667</v>
       </c>
       <c r="C73" t="n">
-        <v>5.121819967557001e-05</v>
+        <v>5.433836257782495e-05</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1537,13 +1537,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002058648418763841</v>
+        <v>0.002186966276395895</v>
       </c>
       <c r="C74" t="n">
-        <v>4.778310301156161e-05</v>
+        <v>5.054432129725627e-05</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1553,13 +1553,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001047782911722176</v>
+        <v>0.001115213228359013</v>
       </c>
       <c r="C75" t="n">
-        <v>2.585302723973293e-05</v>
+        <v>2.737875676101556e-05</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1569,13 +1569,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.0005624094306173774</v>
+        <v>0.00059714234606368</v>
       </c>
       <c r="C76" t="n">
-        <v>1.379001819556206e-05</v>
+        <v>1.451596366423714e-05</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004521324627078339</v>
+        <v>0.0004829875837689778</v>
       </c>
       <c r="C77" t="n">
-        <v>1.129227565254528e-05</v>
+        <v>1.194051057141555e-05</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001016899017008687</v>
+        <v>0.001090549952540108</v>
       </c>
       <c r="C78" t="n">
-        <v>2.412650397858534e-05</v>
+        <v>2.571981278000994e-05</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1617,13 +1617,13 @@
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001140687492383807</v>
+        <v>0.001226710616262302</v>
       </c>
       <c r="C79" t="n">
-        <v>2.78693451757911e-05</v>
+        <v>2.972897125299119e-05</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1633,13 +1633,13 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008266202971454033</v>
+        <v>0.0008918372944228056</v>
       </c>
       <c r="C80" t="n">
-        <v>1.97146962718741e-05</v>
+        <v>2.112861729582314e-05</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1649,13 +1649,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.0004393823180324891</v>
+        <v>0.000472904552424753</v>
       </c>
       <c r="C81" t="n">
-        <v>1.097098104393626e-05</v>
+        <v>1.169379341136864e-05</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1665,13 +1665,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000259675847708712</v>
+        <v>0.000279129215221094</v>
       </c>
       <c r="C82" t="n">
-        <v>6.643937525526997e-06</v>
+        <v>7.06816226826582e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1681,13 +1681,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002163196531739345</v>
+        <v>0.0002306053320114696</v>
       </c>
       <c r="C83" t="n">
-        <v>5.583659205804975e-06</v>
+        <v>5.88614807198882e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1697,13 +1697,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001134891134144898</v>
+        <v>0.0001210197300616391</v>
       </c>
       <c r="C84" t="n">
-        <v>2.995739793938198e-06</v>
+        <v>3.155388640801701e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1713,13 +1713,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>5.967238544210427e-05</v>
+        <v>6.364002641319034e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.695976422283584e-06</v>
+        <v>1.775436341081586e-06</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1729,13 +1729,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>4.542291754971085e-05</v>
+        <v>4.855972779974285e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.292291519104755e-06</v>
+        <v>1.35495907957859e-06</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1745,13 +1745,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>3.646682054734993e-05</v>
+        <v>3.878475689058965e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>9.790296885042794e-07</v>
+        <v>1.025011132946812e-06</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1761,13 +1761,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.374308830791889e-05</v>
+        <v>3.600405050019816e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>9.834808259294685e-07</v>
+        <v>1.030579200888811e-06</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1777,13 +1777,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>4.578264435611982e-05</v>
+        <v>4.877827566293231e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.342401386866001e-06</v>
+        <v>1.397480125387617e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>8.258918217296961e-05</v>
+        <v>8.760436490786277e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>2.392004807783405e-06</v>
+        <v>2.493705864141665e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1809,13 +1809,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>9.31073538882677e-05</v>
+        <v>9.960056465754336e-05</v>
       </c>
       <c r="C91" t="n">
-        <v>2.624241214212975e-06</v>
+        <v>2.771843087304313e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1825,13 +1825,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001134628303897611</v>
+        <v>0.0001213780478918344</v>
       </c>
       <c r="C92" t="n">
-        <v>3.107192959660507e-06</v>
+        <v>3.283229369901124e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1841,13 +1841,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001721244182282583</v>
+        <v>0.000184025161328158</v>
       </c>
       <c r="C93" t="n">
-        <v>4.510016055079844e-06</v>
+        <v>4.76415677675128e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1857,13 +1857,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003605671229224687</v>
+        <v>0.0003905887365525865</v>
       </c>
       <c r="C94" t="n">
-        <v>9.274771666164085e-06</v>
+        <v>9.920348938879681e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1873,13 +1873,13 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004547168192098397</v>
+        <v>0.0004862549318785271</v>
       </c>
       <c r="C95" t="n">
-        <v>1.109931545938608e-05</v>
+        <v>1.173514110193078e-05</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003766486701619357</v>
+        <v>0.0004019219978755428</v>
       </c>
       <c r="C96" t="n">
-        <v>9.170928849166195e-06</v>
+        <v>9.683150371342516e-06</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1905,13 +1905,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001809709834906233</v>
+        <v>0.0001930026199412954</v>
       </c>
       <c r="C97" t="n">
-        <v>4.883613531999857e-06</v>
+        <v>5.102941289057669e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1921,13 +1921,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>8.65702136208824e-05</v>
+        <v>9.268243540066439e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.515880366036001e-06</v>
+        <v>2.623443032846276e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>5.373210302611565e-05</v>
+        <v>5.735413381580882e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.594643337907183e-06</v>
+        <v>1.662089422529753e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1953,13 +1953,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>2.952423795346807e-05</v>
+        <v>3.150940974655357e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>9.256554581597477e-07</v>
+        <v>9.588403583212399e-07</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1969,13 +1969,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>1.93027159083966e-05</v>
+        <v>2.039702541249189e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>5.971067287116709e-07</v>
+        <v>6.124030096421082e-07</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1985,13 +1985,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>1.317196879832352e-05</v>
+        <v>1.405735720660923e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>4.64878216080537e-07</v>
+        <v>4.85491471144162e-07</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>1.272617643565598e-05</v>
+        <v>1.359333195863349e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>4.935250010320531e-07</v>
+        <v>5.024898724148606e-07</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>1.550273045835626e-05</v>
+        <v>1.641386957972163e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>4.858261777529835e-07</v>
+        <v>5.018442196357787e-07</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2033,13 +2033,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>2.901809408480575e-05</v>
+        <v>3.097932684903099e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>9.37512179679572e-07</v>
+        <v>9.782631174930411e-07</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2049,13 +2049,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>4.155044961077943e-05</v>
+        <v>4.422301886850919e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.162247696556665e-06</v>
+        <v>1.217860063026861e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2065,13 +2065,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>5.309462698797256e-05</v>
+        <v>5.650886186017354e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.498882524345083e-06</v>
+        <v>1.574606113564998e-06</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2081,13 +2081,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>5.40466469083233e-05</v>
+        <v>5.738456203929793e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.371986482688066e-06</v>
+        <v>1.440428799962986e-06</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2097,13 +2097,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>5.47251312330563e-05</v>
+        <v>5.805888727790106e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.511443846625376e-06</v>
+        <v>1.56878205462692e-06</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>5.242434920457305e-05</v>
+        <v>5.572403944558085e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33844540259382e-06</v>
+        <v>1.405626923569479e-06</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2129,13 +2129,13 @@
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>5.420538810289613e-05</v>
+        <v>5.756864404118397e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.394515357364506e-06</v>
+        <v>1.461711480940109e-06</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2145,13 +2145,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>5.484264083253762e-05</v>
+        <v>5.836825649042447e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.509048478153629e-06</v>
+        <v>1.57726889641521e-06</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2161,13 +2161,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>5.80642906835599e-05</v>
+        <v>6.163834471237771e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.487697190793486e-06</v>
+        <v>1.559106405961015e-06</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2177,13 +2177,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>6.061715327858496e-05</v>
+        <v>6.445820530606746e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.530944978679094e-06</v>
+        <v>1.611503152264352e-06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2193,13 +2193,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>6.494491923059329e-05</v>
+        <v>6.888981736409084e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.650757068658758e-06</v>
+        <v>1.728629017110443e-06</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>6.554929558358417e-05</v>
+        <v>6.974060789769978e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1.676670065365667e-06</v>
+        <v>1.762836712920766e-06</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2225,13 +2225,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>6.690475785273653e-05</v>
+        <v>7.161503246086043e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.798612415545321e-06</v>
+        <v>1.90208745759429e-06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>6.555374177266117e-05</v>
+        <v>6.966528212761617e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.605037638285001e-06</v>
+        <v>1.68670850187007e-06</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2257,13 +2257,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>6.52453816116822e-05</v>
+        <v>6.952921904212643e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.675042084427731e-06</v>
+        <v>1.764780707314114e-06</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2273,13 +2273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>5.429408313533508e-05</v>
+        <v>5.778046714791061e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.400812293080256e-06</v>
+        <v>1.471237429753567e-06</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2289,13 +2289,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>5.304155267864307e-05</v>
+        <v>5.672678103270706e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.486367819390085e-06</v>
+        <v>1.561598636275732e-06</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2305,13 +2305,13 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>4.267330334823559e-05</v>
+        <v>4.51700444840117e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.131153336944135e-06</v>
+        <v>1.177926731950893e-06</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>3.410170449493718e-05</v>
+        <v>3.620100386118716e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>9.067567440549036e-07</v>
+        <v>9.471575299214591e-07</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>3.615465248128747e-05</v>
+        <v>3.847191970193744e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1.108250815058388e-06</v>
+        <v>1.153494652233512e-06</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2353,13 +2353,13 @@
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>4.576642328192917e-05</v>
+        <v>4.876428559448091e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1.232442697413956e-06</v>
+        <v>1.286851056829854e-06</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2369,13 +2369,13 @@
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>6.232206198584971e-05</v>
+        <v>6.635684956150766e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.602885569635111e-06</v>
+        <v>1.685858435970718e-06</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2385,13 +2385,13 @@
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>6.031488348511882e-05</v>
+        <v>6.412538790112383e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.554198396858351e-06</v>
+        <v>1.630674984527744e-06</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2401,13 +2401,13 @@
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>9.701395171569707e-05</v>
+        <v>0.0001035426644456031</v>
       </c>
       <c r="C128" t="n">
-        <v>2.460382306298626e-06</v>
+        <v>2.593829159127094e-06</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001790724762100528</v>
+        <v>0.0001913821382689526</v>
       </c>
       <c r="C129" t="n">
-        <v>4.561219110830096e-06</v>
+        <v>4.815793632353479e-06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2433,13 +2433,13 @@
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0001959134677370861</v>
+        <v>0.000209566298583301</v>
       </c>
       <c r="C130" t="n">
-        <v>5.089077628326244e-06</v>
+        <v>5.364877428916013e-06</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2449,13 +2449,13 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002059973343063441</v>
+        <v>0.0002195292994969912</v>
       </c>
       <c r="C131" t="n">
-        <v>5.490216915343684e-06</v>
+        <v>5.75531929614576e-06</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2465,13 +2465,13 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002357433705071552</v>
+        <v>0.000250343911460666</v>
       </c>
       <c r="C132" t="n">
-        <v>5.899847418375968e-06</v>
+        <v>6.173657092491692e-06</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2481,13 +2481,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002681366793096546</v>
+        <v>0.0002862445226560407</v>
       </c>
       <c r="C133" t="n">
-        <v>6.571513919814568e-06</v>
+        <v>6.942709851110234e-06</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002823949404465356</v>
+        <v>0.0003009295013520345</v>
       </c>
       <c r="C134" t="n">
-        <v>6.889401869241958e-06</v>
+        <v>7.264109541223567e-06</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2513,13 +2513,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002729044165321484</v>
+        <v>0.0002907093075823657</v>
       </c>
       <c r="C135" t="n">
-        <v>6.862076957705078e-06</v>
+        <v>7.20898762897138e-06</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2529,13 +2529,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.000248191843915478</v>
+        <v>0.0002650943948765073</v>
       </c>
       <c r="C136" t="n">
-        <v>6.188101343175086e-06</v>
+        <v>6.537890487061279e-06</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2545,13 +2545,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001986155288190323</v>
+        <v>0.0002123457068919922</v>
       </c>
       <c r="C137" t="n">
-        <v>5.155137317545351e-06</v>
+        <v>5.41680960561841e-06</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001397712277168646</v>
+        <v>0.0001509318030536375</v>
       </c>
       <c r="C138" t="n">
-        <v>3.608055843395911e-06</v>
+        <v>3.841975873408863e-06</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2577,13 +2577,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>9.598496097773475e-05</v>
+        <v>0.0001021174200618176</v>
       </c>
       <c r="C139" t="n">
-        <v>2.611594312299574e-06</v>
+        <v>2.725101368617995e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2593,13 +2593,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>7.799520302221238e-05</v>
+        <v>8.277076788107198e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>2.31653786036153e-06</v>
+        <v>2.390005843298764e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2609,13 +2609,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>6.357353435406461e-05</v>
+        <v>6.759396677206918e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1.771857675821897e-06</v>
+        <v>1.842203611044869e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>5.344779186371237e-05</v>
+        <v>5.708677261999796e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1.616992220435233e-06</v>
+        <v>1.687020614101144e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2641,13 +2641,13 @@
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>5.964991071525563e-05</v>
+        <v>6.336293085108886e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.819834217473156e-06</v>
+        <v>1.888198649000581e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2657,13 +2657,13 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002225641007911923</v>
+        <v>0.0002379096170875561</v>
       </c>
       <c r="C144" t="n">
-        <v>5.863931262524989e-06</v>
+        <v>6.175919049113167e-06</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004213239301090198</v>
+        <v>0.0004504077225360982</v>
       </c>
       <c r="C145" t="n">
-        <v>9.756826572800204e-06</v>
+        <v>1.038557427293634e-05</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2689,13 +2689,13 @@
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0004679420490699201</v>
+        <v>0.0005004859231322117</v>
       </c>
       <c r="C146" t="n">
-        <v>1.109697884371533e-05</v>
+        <v>1.179571155928384e-05</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2705,13 +2705,13 @@
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0004920633945198861</v>
+        <v>0.000527214316825175</v>
       </c>
       <c r="C147" t="n">
-        <v>1.186046676339387e-05</v>
+        <v>1.261108422251219e-05</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2721,13 +2721,13 @@
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0004812295019451203</v>
+        <v>0.0005162870281401409</v>
       </c>
       <c r="C148" t="n">
-        <v>1.157811118723136e-05</v>
+        <v>1.234520566069473e-05</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2737,13 +2737,13 @@
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0004814533068235167</v>
+        <v>0.0005152596757638751</v>
       </c>
       <c r="C149" t="n">
-        <v>1.158175136576416e-05</v>
+        <v>1.230789379332288e-05</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2753,13 +2753,13 @@
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0005958336363486988</v>
+        <v>0.0006370901440849822</v>
       </c>
       <c r="C150" t="n">
-        <v>1.416711845408635e-05</v>
+        <v>1.501397153528914e-05</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2769,13 +2769,13 @@
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006212640943447996</v>
+        <v>0.0006660962170282508</v>
       </c>
       <c r="C151" t="n">
-        <v>1.460173260215803e-05</v>
+        <v>1.557750529474422e-05</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2785,13 +2785,13 @@
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006218709723196476</v>
+        <v>0.0006643753868759688</v>
       </c>
       <c r="C152" t="n">
-        <v>1.472906713069685e-05</v>
+        <v>1.561549745594235e-05</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2801,13 +2801,13 @@
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006268895006585215</v>
+        <v>0.0006731160622428691</v>
       </c>
       <c r="C153" t="n">
-        <v>1.4635373405462e-05</v>
+        <v>1.564493706530242e-05</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2817,13 +2817,13 @@
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006374594663919428</v>
+        <v>0.0006800767124307872</v>
       </c>
       <c r="C154" t="n">
-        <v>1.505674943811791e-05</v>
+        <v>1.592041012706686e-05</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006286156524217504</v>
+        <v>0.0006715320273751088</v>
       </c>
       <c r="C155" t="n">
-        <v>1.479524752145032e-05</v>
+        <v>1.571304459365193e-05</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2849,13 +2849,13 @@
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000617223708246716</v>
+        <v>0.000659560987063785</v>
       </c>
       <c r="C156" t="n">
-        <v>1.439749579822433e-05</v>
+        <v>1.529393261142999e-05</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2865,13 +2865,13 @@
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005147397089845236</v>
+        <v>0.0005508539665188287</v>
       </c>
       <c r="C157" t="n">
-        <v>1.188471062112914e-05</v>
+        <v>1.26553307693197e-05</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2881,13 +2881,13 @@
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003791896666909078</v>
+        <v>0.0004054852294850713</v>
       </c>
       <c r="C158" t="n">
-        <v>9.234578157900583e-06</v>
+        <v>9.772952663213757e-06</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2897,13 +2897,13 @@
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002767524166901385</v>
+        <v>0.0002949499070472892</v>
       </c>
       <c r="C159" t="n">
-        <v>6.612196238292125e-06</v>
+        <v>6.981455263478608e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2913,13 +2913,13 @@
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002883086033306753</v>
+        <v>0.0003081001836791955</v>
       </c>
       <c r="C160" t="n">
-        <v>7.155538478050902e-06</v>
+        <v>7.549398572317362e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2929,13 +2929,13 @@
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002221198303384071</v>
+        <v>0.0002369439858325341</v>
       </c>
       <c r="C161" t="n">
-        <v>5.393509183582107e-06</v>
+        <v>5.679557498405909e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2945,13 +2945,13 @@
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002220386951991223</v>
+        <v>0.0002368313524859272</v>
       </c>
       <c r="C162" t="n">
-        <v>5.445009259159107e-06</v>
+        <v>5.741031900819886e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2961,13 +2961,13 @@
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002139780056771204</v>
+        <v>0.0002293675599069072</v>
       </c>
       <c r="C163" t="n">
-        <v>5.18759706433012e-06</v>
+        <v>5.505839670840822e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2977,13 +2977,13 @@
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.000197328803071349</v>
+        <v>0.0002104653051077955</v>
       </c>
       <c r="C164" t="n">
-        <v>4.85391671486998e-06</v>
+        <v>5.111781570519635e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2993,13 +2993,13 @@
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.000183419839739366</v>
+        <v>0.0001961716543723429</v>
       </c>
       <c r="C165" t="n">
-        <v>4.625884632231671e-06</v>
+        <v>4.882557035887978e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3009,13 +3009,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001747737959840143</v>
+        <v>0.0001869904868837698</v>
       </c>
       <c r="C166" t="n">
-        <v>4.632145733250127e-06</v>
+        <v>4.864641267779169e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001675593141011447</v>
+        <v>0.0001786034852003999</v>
       </c>
       <c r="C167" t="n">
-        <v>4.134578749264506e-06</v>
+        <v>4.35483485543111e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.000140476862647785</v>
+        <v>0.0001505852964449694</v>
       </c>
       <c r="C168" t="n">
-        <v>3.524711142994441e-06</v>
+        <v>3.733987269229029e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3057,13 +3057,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001269106507144066</v>
+        <v>0.0001353089877302645</v>
       </c>
       <c r="C169" t="n">
-        <v>3.131136252425954e-06</v>
+        <v>3.300480161443944e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3073,13 +3073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.071646996762628e-05</v>
+        <v>8.628994435739832e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>2.337428615543087e-06</v>
+        <v>2.441347085037138e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3089,13 +3089,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>5.983802948090401e-05</v>
+        <v>6.351694583518737e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1.641387973503063e-06</v>
+        <v>1.710764874932582e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3105,13 +3105,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>6.600497163521159e-05</v>
+        <v>6.981291499272825e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.879332338361524e-06</v>
+        <v>1.944414579462254e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3121,13 +3121,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>8.821880339716936e-05</v>
+        <v>9.399569529924109e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.74233064160577e-06</v>
+        <v>2.867041896384136e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3137,13 +3137,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001137205254380706</v>
+        <v>0.0001218156140864119</v>
       </c>
       <c r="C174" t="n">
-        <v>3.051064053867918e-06</v>
+        <v>3.236524847656474e-06</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3153,13 +3153,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001261335720527543</v>
+        <v>0.0001338999073151358</v>
       </c>
       <c r="C175" t="n">
-        <v>3.859335973433331e-06</v>
+        <v>4.044747680089972e-06</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3169,13 +3169,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001728089850224592</v>
+        <v>0.0001835483887332382</v>
       </c>
       <c r="C176" t="n">
-        <v>5.589173989452801e-06</v>
+        <v>5.820774556739693e-06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3185,13 +3185,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002587386491283566</v>
+        <v>0.0002757597748727502</v>
       </c>
       <c r="C177" t="n">
-        <v>7.507050145142183e-06</v>
+        <v>7.877321259963538e-06</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3201,13 +3201,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003073466811827899</v>
+        <v>0.0003278238036143371</v>
       </c>
       <c r="C178" t="n">
-        <v>9.25081830731581e-06</v>
+        <v>9.694294418428982e-06</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3217,13 +3217,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0003755769911170359</v>
+        <v>0.0004014542491366684</v>
       </c>
       <c r="C179" t="n">
-        <v>1.065913958788587e-05</v>
+        <v>1.12354568104308e-05</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3233,13 +3233,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005019030911133385</v>
+        <v>0.0005352945659019833</v>
       </c>
       <c r="C180" t="n">
-        <v>1.33918705934569e-05</v>
+        <v>9.539155909120014e-06</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0004989993897634522</v>
+        <v>0.0008043887376760488</v>
       </c>
       <c r="C181" t="n">
-        <v>1.217792319013086e-05</v>
+        <v>2.067098158059563e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3265,13 +3265,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0007526894261568073</v>
+        <v>0.001032920282118864</v>
       </c>
       <c r="C182" t="n">
-        <v>1.960138373043308e-05</v>
+        <v>2.633447603935776e-05</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0009633180133935657</v>
+        <v>0.0013449249885156</v>
       </c>
       <c r="C183" t="n">
-        <v>2.480986514359911e-05</v>
+        <v>3.129582877008734e-05</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3297,13 +3297,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001262488129173153</v>
+        <v>0.001581216924535594</v>
       </c>
       <c r="C184" t="n">
-        <v>2.955077543494556e-05</v>
+        <v>3.633916578686647e-05</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3313,13 +3313,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001478420066147818</v>
+        <v>0.001539875358556875</v>
       </c>
       <c r="C185" t="n">
-        <v>3.416203433747902e-05</v>
+        <v>3.436429859090065e-05</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3329,13 +3329,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001438395614859874</v>
+        <v>0.001517699344614204</v>
       </c>
       <c r="C186" t="n">
-        <v>3.208302817937662e-05</v>
+        <v>3.431432051645466e-05</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3345,13 +3345,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001416300026610696</v>
+        <v>0.001426112228252969</v>
       </c>
       <c r="C187" t="n">
-        <v>3.209178438623055e-05</v>
+        <v>3.256269379613996e-05</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3361,13 +3361,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001331046342980817</v>
+        <v>0.001237099456439774</v>
       </c>
       <c r="C188" t="n">
-        <v>3.045112599133121e-05</v>
+        <v>2.733138045271675e-05</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3377,13 +3377,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001156262864688409</v>
+        <v>0.001175125633196067</v>
       </c>
       <c r="C189" t="n">
-        <v>2.552189482431198e-05</v>
+        <v>2.617066692579437e-05</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3393,13 +3393,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001098426443494892</v>
+        <v>0.001008860858740865</v>
       </c>
       <c r="C190" t="n">
-        <v>2.447649602654942e-05</v>
+        <v>2.253891541621544e-05</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0009416419643730322</v>
+        <v>0.0008024534651359256</v>
       </c>
       <c r="C191" t="n">
-        <v>2.104791911529774e-05</v>
+        <v>1.801503001862242e-05</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3425,13 +3425,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0007494748804475219</v>
+        <v>0.0006745797409200737</v>
       </c>
       <c r="C192" t="n">
-        <v>1.686681946981717e-05</v>
+        <v>1.533520754032583e-05</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3441,13 +3441,13 @@
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0006324374409487314</v>
+        <v>0.0005054053635821784</v>
       </c>
       <c r="C193" t="n">
-        <v>1.446154510996787e-05</v>
+        <v>8.300525334340274e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0004651002747750747</v>
+        <v>0.0003453706871969044</v>
       </c>
       <c r="C194" t="n">
-        <v>1.109826244420523e-05</v>
+        <v>8.066889985575434e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0004799837591596374</v>
+        <v>0.0002130060643840449</v>
       </c>
       <c r="C195" t="n">
-        <v>1.103410625682048e-05</v>
+        <v>5.335463417650505e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3489,13 +3489,13 @@
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.000323596511585794</v>
+        <v>0.0002145117916482188</v>
       </c>
       <c r="C196" t="n">
-        <v>7.625879251775777e-06</v>
+        <v>5.205881308622086e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3505,13 +3505,13 @@
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001995063779418909</v>
+        <v>0.0001619841755045763</v>
       </c>
       <c r="C197" t="n">
-        <v>5.08263341418064e-06</v>
+        <v>4.104897341184386e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3521,13 +3521,13 @@
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002016900827205353</v>
+        <v>0.0001532470645362727</v>
       </c>
       <c r="C198" t="n">
-        <v>4.965359194030042e-06</v>
+        <v>3.772116680125377e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3537,13 +3537,13 @@
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.000152128640339068</v>
+        <v>0.00014398361320979</v>
       </c>
       <c r="C199" t="n">
-        <v>3.923327510089129e-06</v>
+        <v>3.562741246787281e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3553,13 +3553,13 @@
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0001443806652850121</v>
+        <v>0.0002429940708977036</v>
       </c>
       <c r="C200" t="n">
-        <v>3.615308381154529e-06</v>
+        <v>6.095883973897378e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3569,13 +3569,13 @@
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001353433368086314</v>
+        <v>0.0001876402190286787</v>
       </c>
       <c r="C201" t="n">
-        <v>3.40486030946515e-06</v>
+        <v>4.359419205874858e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3585,13 +3585,13 @@
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002271618673591836</v>
+        <v>0.0002950233952544847</v>
       </c>
       <c r="C202" t="n">
-        <v>5.786552361368406e-06</v>
+        <v>7.324525725537373e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3601,13 +3601,13 @@
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0001759104720207768</v>
+        <v>0.0002801230900247097</v>
       </c>
       <c r="C203" t="n">
-        <v>4.120987387064062e-06</v>
+        <v>6.953077088003923e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3617,13 +3617,13 @@
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002766682990923271</v>
+        <v>0.0002690762163659159</v>
       </c>
       <c r="C204" t="n">
-        <v>6.967085187918751e-06</v>
+        <v>6.754520415808741e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3633,13 +3633,13 @@
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002628376208242592</v>
+        <v>0.0002661035532156613</v>
       </c>
       <c r="C205" t="n">
-        <v>6.619302795325116e-06</v>
+        <v>6.64737430752726e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3649,13 +3649,13 @@
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002523913228537872</v>
+        <v>0.0002602225517699722</v>
       </c>
       <c r="C206" t="n">
-        <v>6.436796949769317e-06</v>
+        <v>6.585007600053643e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3665,13 +3665,13 @@
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002499664822982917</v>
+        <v>0.0002468908154376682</v>
       </c>
       <c r="C207" t="n">
-        <v>6.347940908233775e-06</v>
+        <v>5.837543212123581e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3681,13 +3681,13 @@
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002434515212549926</v>
+        <v>0.0002499491381408085</v>
       </c>
       <c r="C208" t="n">
-        <v>6.252251736096539e-06</v>
+        <v>6.221420331943708e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3697,13 +3697,13 @@
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002309700224348668</v>
+        <v>0.0001473720761739328</v>
       </c>
       <c r="C209" t="n">
-        <v>5.5137817293881e-06</v>
+        <v>3.543645345663989e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3713,13 +3713,13 @@
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002342281548205718</v>
+        <v>6.462568092803534e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>5.905212740884756e-06</v>
+        <v>1.851014077524145e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3729,13 +3729,13 @@
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0001380192483883197</v>
+        <v>4.152084343061927e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>3.359864740650542e-06</v>
+        <v>1.320861879358226e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3745,13 +3745,13 @@
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>6.049833045594503e-05</v>
+        <v>5.813677506437335e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.77828878752633e-06</v>
+        <v>1.572996954305474e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3761,13 +3761,13 @@
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.908058341291929e-05</v>
+        <v>3.656677237071036e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.288567032569191e-06</v>
+        <v>1.121395320913172e-06</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3777,13 +3777,13 @@
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>5.452532710797551e-05</v>
+        <v>2.827001390205653e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>1.511979760704522e-06</v>
+        <v>9.441880623237072e-07</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3793,13 +3793,13 @@
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>3.415019850698269e-05</v>
+        <v>2.459321396886191e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>1.082075747047993e-06</v>
+        <v>8.224396774633243e-07</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3809,13 +3809,13 @@
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.663972797194945e-05</v>
+        <v>2.292480692273231e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>9.207805942691743e-07</v>
+        <v>8.151199942247366e-07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3825,13 +3825,13 @@
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>2.327815611840813e-05</v>
+        <v>2.238485715656257e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>8.11300161171087e-07</v>
+        <v>8.092984461665724e-07</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3841,13 +3841,13 @@
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>2.147164096995571e-05</v>
+        <v>2.721372409155437e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>7.979713419754361e-07</v>
+        <v>9.353268281823746e-07</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3857,13 +3857,13 @@
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>2.08598680768509e-05</v>
+        <v>2.72231168072582e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>7.864597343684813e-07</v>
+        <v>9.572256870240536e-07</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3873,13 +3873,13 @@
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>2.574043296857423e-05</v>
+        <v>3.038806154693012e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>9.20685332665641e-07</v>
+        <v>9.0976207003613e-07</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3889,47 +3889,15 @@
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>2.559400661006807e-05</v>
+        <v>3.50675826802906e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>9.388251464084269e-07</v>
+        <v>1.062550885234915e-06</v>
       </c>
       <c r="D221" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
-      </c>
-      <c r="B222" t="n">
-        <v>2.884235041808614e-05</v>
-      </c>
-      <c r="C222" t="n">
-        <v>8.962595007224503e-07</v>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
-      </c>
-      <c r="B223" t="n">
-        <v>3.3164831435499e-05</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.040185270062815e-06</v>
-      </c>
-      <c r="D223" t="inlineStr">
         <is>
           <t>4</t>
         </is>

--- a/legendre_out/DATA/p2/p2CrossPoints.xlsx
+++ b/legendre_out/DATA/p2/p2CrossPoints.xlsx
@@ -388,10 +388,10 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>8.819466890209767e-06</v>
+        <v>8.661047933350191e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>2.732584666044602e-07</v>
+        <v>2.759057186776419e-07</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -404,10 +404,10 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>1.37006068424099e-05</v>
+        <v>1.371247270417061e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>4.170296168476945e-07</v>
+        <v>4.146955764205321e-07</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -420,10 +420,10 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>1.636278628159607e-05</v>
+        <v>1.604205170015039e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>4.758329176442646e-07</v>
+        <v>4.709835724516272e-07</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -436,10 +436,10 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.301804380779223e-05</v>
+        <v>2.275878155591155e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>6.284033987358383e-07</v>
+        <v>6.28135972226269e-07</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -452,10 +452,10 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.457784414984172e-05</v>
+        <v>2.482249137216878e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>7.004121895482014e-07</v>
+        <v>7.038089623026592e-07</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -468,10 +468,10 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.475292241020945e-05</v>
+        <v>2.509090753277816e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>7.039681190690511e-07</v>
+        <v>7.103149056655022e-07</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -484,10 +484,10 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.832189109232445e-05</v>
+        <v>2.809685308202042e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>7.360851201077147e-07</v>
+        <v>7.329941091859544e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -500,10 +500,10 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>2.776435269531485e-05</v>
+        <v>2.763881878447032e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>7.044738091859971e-07</v>
+        <v>7.014054345083405e-07</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -516,10 +516,10 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>2.534494073666331e-05</v>
+        <v>2.548551427655535e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.977182087472301e-07</v>
+        <v>7.026079779125858e-07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -532,10 +532,10 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>2.520431388860458e-05</v>
+        <v>2.568738890212164e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>6.965169590460649e-07</v>
+        <v>7.091731880622944e-07</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -548,10 +548,10 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>2.156526024838602e-05</v>
+        <v>2.166322512840379e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.875956156724549e-07</v>
+        <v>5.865032798801845e-07</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -564,10 +564,10 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>1.645567114102098e-05</v>
+        <v>1.700698602516936e-05</v>
       </c>
       <c r="C13" t="n">
-        <v>4.745993324745952e-07</v>
+        <v>4.868956685735083e-07</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -580,10 +580,10 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>9.426383791463163e-06</v>
+        <v>9.102359176498216e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>3.231179092334539e-07</v>
+        <v>3.119746197638599e-07</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -596,10 +596,10 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>1.343808816174539e-05</v>
+        <v>1.35195412838913e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.257483861023175e-07</v>
+        <v>4.23162478534824e-07</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -612,10 +612,10 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>1.842888605574057e-05</v>
+        <v>1.848828529888727e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>5.692894539346985e-07</v>
+        <v>5.722296926086745e-07</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -628,10 +628,10 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>2.155252168109817e-05</v>
+        <v>2.197068418141153e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>6.393865834049551e-07</v>
+        <v>6.469230211181817e-07</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -644,10 +644,10 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>2.544972283929159e-05</v>
+        <v>2.509975934963318e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>7.402597106911302e-07</v>
+        <v>7.311344867129433e-07</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -660,10 +660,10 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>3.063126991385826e-05</v>
+        <v>3.083011127199409e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>8.503517765502457e-07</v>
+        <v>8.541565768205065e-07</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -676,10 +676,10 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>3.438228707251985e-05</v>
+        <v>3.427820669971762e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>9.671723484894378e-07</v>
+        <v>9.675033866697971e-07</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>5.204495849027794e-05</v>
+        <v>5.222911089710987e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.38517177647849e-06</v>
+        <v>1.388226195596997e-06</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -708,10 +708,10 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0001490038455283936</v>
+        <v>0.0001489710977067112</v>
       </c>
       <c r="C22" t="n">
-        <v>3.793025049742925e-06</v>
+        <v>3.794976910528223e-06</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -724,10 +724,10 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>0.000235419460155689</v>
+        <v>0.0002368254579795994</v>
       </c>
       <c r="C23" t="n">
-        <v>5.930839104838835e-06</v>
+        <v>5.956832562013413e-06</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -740,10 +740,10 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0003526277764173752</v>
+        <v>0.0003536084412688356</v>
       </c>
       <c r="C24" t="n">
-        <v>8.751841031121204e-06</v>
+        <v>8.766171806419906e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -756,10 +756,10 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0003570906411034677</v>
+        <v>0.0003562557472264524</v>
       </c>
       <c r="C25" t="n">
-        <v>8.642330780705501e-06</v>
+        <v>8.62833333550474e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -772,10 +772,10 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0003319820970842881</v>
+        <v>0.0003319739698688344</v>
       </c>
       <c r="C26" t="n">
-        <v>8.21263717148202e-06</v>
+        <v>8.219057478694586e-06</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -788,10 +788,10 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0003155382558392645</v>
+        <v>0.0003158883308226975</v>
       </c>
       <c r="C27" t="n">
-        <v>7.969777537857187e-06</v>
+        <v>7.971257480356986e-06</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -804,10 +804,10 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0003170610168818279</v>
+        <v>0.0003165450168351961</v>
       </c>
       <c r="C28" t="n">
-        <v>8.007486692738877e-06</v>
+        <v>7.99293017772673e-06</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -820,10 +820,10 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0003220918368906234</v>
+        <v>0.0003231029115490132</v>
       </c>
       <c r="C29" t="n">
-        <v>7.978237266162684e-06</v>
+        <v>7.994349901808716e-06</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -836,10 +836,10 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0003106013382673095</v>
+        <v>0.0003108034755382158</v>
       </c>
       <c r="C30" t="n">
-        <v>7.724826459839104e-06</v>
+        <v>7.73293128639239e-06</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -852,10 +852,10 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0003136114463312155</v>
+        <v>0.0003130878222275883</v>
       </c>
       <c r="C31" t="n">
-        <v>7.80858519257057e-06</v>
+        <v>7.800282470488079e-06</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -868,10 +868,10 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0003122013164842701</v>
+        <v>0.0003112242938597056</v>
       </c>
       <c r="C32" t="n">
-        <v>7.864577363540937e-06</v>
+        <v>7.839956150355129e-06</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -884,10 +884,10 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0003031872997426252</v>
+        <v>0.0003041093072476322</v>
       </c>
       <c r="C33" t="n">
-        <v>7.501981045618106e-06</v>
+        <v>7.517892281119834e-06</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -900,10 +900,10 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>0.0002958728213515772</v>
+        <v>0.000294955447082057</v>
       </c>
       <c r="C34" t="n">
-        <v>7.489446212684108e-06</v>
+        <v>7.465179106742239e-06</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -916,10 +916,10 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0002756422368554605</v>
+        <v>0.0002761161000598676</v>
       </c>
       <c r="C35" t="n">
-        <v>6.891351751617953e-06</v>
+        <v>6.893472866762361e-06</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -932,10 +932,10 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>0.0002507886519229948</v>
+        <v>0.0002511183216349825</v>
       </c>
       <c r="C36" t="n">
-        <v>6.255735678294338e-06</v>
+        <v>6.259663893243992e-06</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -948,10 +948,10 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>0.0002037966887689798</v>
+        <v>0.0002031814400571333</v>
       </c>
       <c r="C37" t="n">
-        <v>5.038238927580641e-06</v>
+        <v>5.025252216270507e-06</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -964,10 +964,10 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0001625640180041803</v>
+        <v>0.000162656668112932</v>
       </c>
       <c r="C38" t="n">
-        <v>4.005876271424973e-06</v>
+        <v>4.008320588710153e-06</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -980,10 +980,10 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0001093387107647033</v>
+        <v>0.0001103075075665546</v>
       </c>
       <c r="C39" t="n">
-        <v>2.72664520485288e-06</v>
+        <v>2.745880338581859e-06</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -996,10 +996,10 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0001547238482059898</v>
+        <v>0.0001556760288386659</v>
       </c>
       <c r="C40" t="n">
-        <v>3.889528123048973e-06</v>
+        <v>3.903887917427986e-06</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1012,10 +1012,10 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>7.733612038922368e-05</v>
+        <v>7.800713629193299e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>1.982670266193871e-06</v>
+        <v>1.995360941463854e-06</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1028,10 +1028,10 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>5.254329241434402e-05</v>
+        <v>5.24012386154456e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>1.363996147471463e-06</v>
+        <v>1.365962599773394e-06</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1044,10 +1044,10 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>4.015690477570473e-05</v>
+        <v>4.003179333670344e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.058994992869787e-06</v>
+        <v>1.056384740886714e-06</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.437577896705834e-05</v>
+        <v>2.419577393407826e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>6.952082861849813e-07</v>
+        <v>6.941613607726214e-07</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1076,10 +1076,10 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.163067071527197e-05</v>
+        <v>2.153753105100043e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6.496904777191727e-07</v>
+        <v>6.50160519634547e-07</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1092,10 +1092,10 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.06451480533105e-05</v>
+        <v>2.016816623866864e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>6.070620557502889e-07</v>
+        <v>5.943855150833864e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1108,10 +1108,10 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.257975869554907e-05</v>
+        <v>2.194105780542804e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>6.349661045738748e-07</v>
+        <v>6.249005046437237e-07</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1124,10 +1124,10 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.872666827721698e-05</v>
+        <v>2.885485303328734e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>7.748762863726505e-07</v>
+        <v>7.808256708076537e-07</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1140,10 +1140,10 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>3.960566927688777e-05</v>
+        <v>3.891522478845504e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1.038370720591826e-06</v>
+        <v>1.02713769777079e-06</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1156,10 +1156,10 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>5.737043851205674e-05</v>
+        <v>5.75037022228124e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>1.472554845493506e-06</v>
+        <v>1.475556705741531e-06</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1172,10 +1172,10 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>7.198265129907533e-05</v>
+        <v>7.164364265350434e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>1.780575619537714e-06</v>
+        <v>1.775289921217264e-06</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>0.0001352498170400256</v>
+        <v>0.0001362221165767451</v>
       </c>
       <c r="C52" t="n">
-        <v>3.464896896038091e-06</v>
+        <v>3.48431657688431e-06</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1204,10 +1204,10 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>0.0002122492029697301</v>
+        <v>0.0002124943659444857</v>
       </c>
       <c r="C53" t="n">
-        <v>5.286357541593251e-06</v>
+        <v>5.287518526640151e-06</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -1220,10 +1220,10 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0004972155419920545</v>
+        <v>0.0004983022180633358</v>
       </c>
       <c r="C54" t="n">
-        <v>1.258990909967028e-05</v>
+        <v>1.260377513818691e-05</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1236,10 +1236,10 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0007438672839373054</v>
+        <v>0.0007439638796530426</v>
       </c>
       <c r="C55" t="n">
-        <v>1.8395375399521e-05</v>
+        <v>1.839218104830326e-05</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -1252,10 +1252,10 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007843887507856526</v>
+        <v>0.0007855044415125878</v>
       </c>
       <c r="C56" t="n">
-        <v>1.90800100575975e-05</v>
+        <v>1.909833995057912e-05</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1268,10 +1268,10 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0005783773903470268</v>
+        <v>0.0005789023634797877</v>
       </c>
       <c r="C57" t="n">
-        <v>1.437827664721859e-05</v>
+        <v>1.438606480956239e-05</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1284,10 +1284,10 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>0.0002748446504791263</v>
+        <v>0.0002751684401139762</v>
       </c>
       <c r="C58" t="n">
-        <v>6.937299496572314e-06</v>
+        <v>6.942580056259863e-06</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1300,10 +1300,10 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0002022209540902729</v>
+        <v>0.0002039882747641075</v>
       </c>
       <c r="C59" t="n">
-        <v>5.149377275988459e-06</v>
+        <v>5.188737603427452e-06</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1316,10 +1316,10 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>0.0002699026568578708</v>
+        <v>0.0002699155665295807</v>
       </c>
       <c r="C60" t="n">
-        <v>6.709862081316827e-06</v>
+        <v>6.70742500182131e-06</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1332,10 +1332,10 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0001041929469791144</v>
+        <v>0.0001034252945298241</v>
       </c>
       <c r="C61" t="n">
-        <v>2.707041608326485e-06</v>
+        <v>2.690450397426369e-06</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1348,10 +1348,10 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>6.970988166146895e-05</v>
+        <v>6.924421410740606e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.779469663511409e-06</v>
+        <v>1.77123695575549e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1364,10 +1364,10 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.960937796738595e-05</v>
+        <v>3.944128699599986e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.075470602771379e-06</v>
+        <v>1.077229699859248e-06</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1380,10 +1380,10 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>2.972672538263759e-05</v>
+        <v>2.996098551101448e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>8.134010711668426e-07</v>
+        <v>8.206044587532796e-07</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1396,10 +1396,10 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>6.677063701810879e-05</v>
+        <v>6.781873553751389e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>1.765530684130124e-06</v>
+        <v>1.791577158649025e-06</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1412,10 +1412,10 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0001979794688041133</v>
+        <v>0.0001980493500225599</v>
       </c>
       <c r="C66" t="n">
-        <v>5.055291760255296e-06</v>
+        <v>5.063068539011172e-06</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1428,10 +1428,10 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0003453614786437249</v>
+        <v>0.0003466208758540724</v>
       </c>
       <c r="C67" t="n">
-        <v>8.475014244582796e-06</v>
+        <v>8.495835014368116e-06</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1444,10 +1444,10 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>0.0006289319120197563</v>
+        <v>0.0006288405867343501</v>
       </c>
       <c r="C68" t="n">
-        <v>1.548689705888168e-05</v>
+        <v>1.548791654431497e-05</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1460,10 +1460,10 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>0.0006294391165801579</v>
+        <v>0.0006299736705505915</v>
       </c>
       <c r="C69" t="n">
-        <v>1.489418799343988e-05</v>
+        <v>1.489633805376559e-05</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1476,10 +1476,10 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001092722813166369</v>
+        <v>0.001095608196434682</v>
       </c>
       <c r="C70" t="n">
-        <v>2.612035394116662e-05</v>
+        <v>2.618351913201931e-05</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1492,10 +1492,10 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001212965680799035</v>
+        <v>0.001219769286817288</v>
       </c>
       <c r="C71" t="n">
-        <v>2.989252126052829e-05</v>
+        <v>3.004827495733499e-05</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1508,10 +1508,10 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001567189909033125</v>
+        <v>0.001569372312411237</v>
       </c>
       <c r="C72" t="n">
-        <v>3.498084166308145e-05</v>
+        <v>3.502665932740763e-05</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1524,10 +1524,10 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>0.002370968634621667</v>
+        <v>0.002377968459633469</v>
       </c>
       <c r="C73" t="n">
-        <v>5.433836257782495e-05</v>
+        <v>5.445395512602684e-05</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -1540,10 +1540,10 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002186966276395895</v>
+        <v>0.002190993228014409</v>
       </c>
       <c r="C74" t="n">
-        <v>5.054432129725627e-05</v>
+        <v>5.062565487694661e-05</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -1556,10 +1556,10 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001115213228359013</v>
+        <v>0.001114564469398428</v>
       </c>
       <c r="C75" t="n">
-        <v>2.737875676101556e-05</v>
+        <v>2.736243789355103e-05</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>0.00059714234606368</v>
+        <v>0.0005970951682923644</v>
       </c>
       <c r="C76" t="n">
-        <v>1.451596366423714e-05</v>
+        <v>1.45153199761731e-05</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1588,10 +1588,10 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>0.0004829875837689778</v>
+        <v>0.0004846929959118938</v>
       </c>
       <c r="C77" t="n">
-        <v>1.194051057141555e-05</v>
+        <v>1.196333487157681e-05</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1604,10 +1604,10 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>0.001090549952540108</v>
+        <v>0.001087713057943667</v>
       </c>
       <c r="C78" t="n">
-        <v>2.571981278000994e-05</v>
+        <v>2.565603573587044e-05</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1620,10 +1620,10 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>0.001226710616262302</v>
+        <v>0.001225429477024724</v>
       </c>
       <c r="C79" t="n">
-        <v>2.972897125299119e-05</v>
+        <v>2.972164558403498e-05</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1636,10 +1636,10 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>0.0008918372944228056</v>
+        <v>0.0008931651360823134</v>
       </c>
       <c r="C80" t="n">
-        <v>2.112861729582314e-05</v>
+        <v>2.115962276882134e-05</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1652,10 +1652,10 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>0.000472904552424753</v>
+        <v>0.000472741882769378</v>
       </c>
       <c r="C81" t="n">
-        <v>1.169379341136864e-05</v>
+        <v>1.169435007380777e-05</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -1668,10 +1668,10 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>0.000279129215221094</v>
+        <v>0.0002810964597579035</v>
       </c>
       <c r="C82" t="n">
-        <v>7.06816226826582e-06</v>
+        <v>7.107599269269162e-06</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -1684,10 +1684,10 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>0.0002306053320114696</v>
+        <v>0.0002316218944013016</v>
       </c>
       <c r="C83" t="n">
-        <v>5.88614807198882e-06</v>
+        <v>5.904760830872471e-06</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1700,10 +1700,10 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>0.0001210197300616391</v>
+        <v>0.0001206907591487756</v>
       </c>
       <c r="C84" t="n">
-        <v>3.155388640801701e-06</v>
+        <v>3.150541789792232e-06</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1716,10 +1716,10 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>6.364002641319034e-05</v>
+        <v>6.244820041244206e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>1.775436341081586e-06</v>
+        <v>1.753546459053013e-06</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>4.855972779974285e-05</v>
+        <v>4.810767952055132e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.35495907957859e-06</v>
+        <v>1.342408965755737e-06</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1748,10 +1748,10 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>3.878475689058965e-05</v>
+        <v>3.823178098968587e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.025011132946812e-06</v>
+        <v>1.014759344267606e-06</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1764,10 +1764,10 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>3.600405050019816e-05</v>
+        <v>3.56576812272857e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.030579200888811e-06</v>
+        <v>1.025104216767143e-06</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -1780,10 +1780,10 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>4.877827566293231e-05</v>
+        <v>4.874560003443701e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>1.397480125387617e-06</v>
+        <v>1.385371111559447e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1796,10 +1796,10 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>8.760436490786277e-05</v>
+        <v>8.760214575068655e-05</v>
       </c>
       <c r="C90" t="n">
-        <v>2.493705864141665e-06</v>
+        <v>2.493960443131707e-06</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -1812,10 +1812,10 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>9.960056465754336e-05</v>
+        <v>0.0001001507991849955</v>
       </c>
       <c r="C91" t="n">
-        <v>2.771843087304313e-06</v>
+        <v>2.79143380661422e-06</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -1828,10 +1828,10 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001213780478918344</v>
+        <v>0.0001218214730450004</v>
       </c>
       <c r="C92" t="n">
-        <v>3.283229369901124e-06</v>
+        <v>3.290225626928585e-06</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -1844,10 +1844,10 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.000184025161328158</v>
+        <v>0.0001843464361052312</v>
       </c>
       <c r="C93" t="n">
-        <v>4.76415677675128e-06</v>
+        <v>4.764900541477537e-06</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -1860,10 +1860,10 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0003905887365525865</v>
+        <v>0.0003907792301510192</v>
       </c>
       <c r="C94" t="n">
-        <v>9.920348938879681e-06</v>
+        <v>9.921357875032006e-06</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0004862549318785271</v>
+        <v>0.0004867669646414603</v>
       </c>
       <c r="C95" t="n">
-        <v>1.173514110193078e-05</v>
+        <v>1.173442178864987e-05</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -1892,10 +1892,10 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0004019219978755428</v>
+        <v>0.0004017061555101058</v>
       </c>
       <c r="C96" t="n">
-        <v>9.683150371342516e-06</v>
+        <v>9.68361740714448e-06</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -1908,10 +1908,10 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0001930026199412954</v>
+        <v>0.0001924714998430938</v>
       </c>
       <c r="C97" t="n">
-        <v>5.102941289057669e-06</v>
+        <v>5.091891673489817e-06</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -1924,10 +1924,10 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>9.268243540066439e-05</v>
+        <v>9.274069376876875e-05</v>
       </c>
       <c r="C98" t="n">
-        <v>2.623443032846276e-06</v>
+        <v>2.625673843955955e-06</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -1940,10 +1940,10 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>5.735413381580882e-05</v>
+        <v>5.745189897251122e-05</v>
       </c>
       <c r="C99" t="n">
-        <v>1.662089422529753e-06</v>
+        <v>1.669866602301572e-06</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -1956,10 +1956,10 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>3.150940974655357e-05</v>
+        <v>3.162112109489806e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>9.588403583212399e-07</v>
+        <v>9.579528962602432e-07</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -1972,10 +1972,10 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>2.039702541249189e-05</v>
+        <v>2.009140464280277e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>6.124030096421082e-07</v>
+        <v>6.075267412748005e-07</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -1988,10 +1988,10 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>1.405735720660923e-05</v>
+        <v>1.380811835228099e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>4.85491471144162e-07</v>
+        <v>4.856312826246275e-07</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2004,10 +2004,10 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>1.359333195863349e-05</v>
+        <v>1.392461415788086e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>5.024898724148606e-07</v>
+        <v>5.070891979352021e-07</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2020,10 +2020,10 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>1.641386957972163e-05</v>
+        <v>1.615968269356434e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>5.018442196357787e-07</v>
+        <v>4.987237444967583e-07</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2036,10 +2036,10 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>3.097932684903099e-05</v>
+        <v>3.137236300980057e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>9.782631174930411e-07</v>
+        <v>9.864115979053095e-07</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2052,10 +2052,10 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>4.422301886850919e-05</v>
+        <v>4.448856732012597e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>1.217860063026861e-06</v>
+        <v>1.221967830445656e-06</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2068,10 +2068,10 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>5.650886186017354e-05</v>
+        <v>5.730266049905961e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>1.574606113564998e-06</v>
+        <v>1.589251667049406e-06</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2084,10 +2084,10 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>5.738456203929793e-05</v>
+        <v>5.788216938242044e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>1.440428799962986e-06</v>
+        <v>1.450722841328783e-06</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2100,10 +2100,10 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>5.805888727790106e-05</v>
+        <v>5.816558298434941e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>1.56878205462692e-06</v>
+        <v>1.571892400116212e-06</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2116,10 +2116,10 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>5.572403944558085e-05</v>
+        <v>5.602598081000481e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>1.405626923569479e-06</v>
+        <v>1.412446020368215e-06</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>5.756864404118397e-05</v>
+        <v>5.769548325709356e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>1.461711480940109e-06</v>
+        <v>1.463049340476558e-06</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2148,10 +2148,10 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>5.836825649042447e-05</v>
+        <v>5.773661862985634e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>1.57726889641521e-06</v>
+        <v>1.568089643193112e-06</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2164,10 +2164,10 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>6.163834471237771e-05</v>
+        <v>6.364636094580221e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>1.559106405961015e-06</v>
+        <v>1.601168315999886e-06</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -2180,10 +2180,10 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>6.445820530606746e-05</v>
+        <v>6.680239375064768e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>1.611503152264352e-06</v>
+        <v>1.667326397496298e-06</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2196,10 +2196,10 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>6.888981736409084e-05</v>
+        <v>7.126453679189529e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>1.728629017110443e-06</v>
+        <v>1.783828272554366e-06</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2212,10 +2212,10 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>6.974060789769978e-05</v>
+        <v>7.130761813611476e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>1.762836712920766e-06</v>
+        <v>1.799228407270453e-06</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2228,10 +2228,10 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>7.161503246086043e-05</v>
+        <v>7.217720273170845e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>1.90208745759429e-06</v>
+        <v>1.913666206857235e-06</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2244,10 +2244,10 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>6.966528212761617e-05</v>
+        <v>7.157560484743392e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>1.68670850187007e-06</v>
+        <v>1.72729717962288e-06</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2260,10 +2260,10 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>6.952921904212643e-05</v>
+        <v>7.169626211964261e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>1.764780707314114e-06</v>
+        <v>1.810534824552949e-06</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2276,10 +2276,10 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>5.778046714791061e-05</v>
+        <v>6.041002797150384e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>1.471237429753567e-06</v>
+        <v>1.527594115647844e-06</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -2292,10 +2292,10 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>5.672678103270706e-05</v>
+        <v>5.694112587521841e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>1.561598636275732e-06</v>
+        <v>1.567651329430532e-06</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2308,10 +2308,10 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>4.51700444840117e-05</v>
+        <v>4.62951807795883e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>1.177926731950893e-06</v>
+        <v>1.203294216638218e-06</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2324,10 +2324,10 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>3.620100386118716e-05</v>
+        <v>3.723820128997261e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>9.471575299214591e-07</v>
+        <v>9.664228246720908e-07</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2340,10 +2340,10 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>3.847191970193744e-05</v>
+        <v>3.839777076800151e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>1.153494652233512e-06</v>
+        <v>1.161261457078464e-06</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2356,10 +2356,10 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>4.876428559448091e-05</v>
+        <v>5.018950560891209e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>1.286851056829854e-06</v>
+        <v>1.317007698130247e-06</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -2372,10 +2372,10 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>6.635684956150766e-05</v>
+        <v>6.833310461051742e-05</v>
       </c>
       <c r="C126" t="n">
-        <v>1.685858435970718e-06</v>
+        <v>1.731359306079396e-06</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -2388,10 +2388,10 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>6.412538790112383e-05</v>
+        <v>6.599205009986171e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>1.630674984527744e-06</v>
+        <v>1.666359591666459e-06</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -2404,10 +2404,10 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001035426644456031</v>
+        <v>0.0001067552583607539</v>
       </c>
       <c r="C128" t="n">
-        <v>2.593829159127094e-06</v>
+        <v>2.668284743646018e-06</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2420,10 +2420,10 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001913821382689526</v>
+        <v>0.0001962193940118006</v>
       </c>
       <c r="C129" t="n">
-        <v>4.815793632353479e-06</v>
+        <v>4.916724030715988e-06</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2436,10 +2436,10 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.000209566298583301</v>
+        <v>0.0002133368485716505</v>
       </c>
       <c r="C130" t="n">
-        <v>5.364877428916013e-06</v>
+        <v>5.443185735698627e-06</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2452,10 +2452,10 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002195292994969912</v>
+        <v>0.0002206105103503802</v>
       </c>
       <c r="C131" t="n">
-        <v>5.75531929614576e-06</v>
+        <v>5.784830880145438e-06</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -2468,10 +2468,10 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.000250343911460666</v>
+        <v>0.0002555911214846017</v>
       </c>
       <c r="C132" t="n">
-        <v>6.173657092491692e-06</v>
+        <v>6.295232474274493e-06</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2484,10 +2484,10 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002862445226560407</v>
+        <v>0.0002923630687670209</v>
       </c>
       <c r="C133" t="n">
-        <v>6.942709851110234e-06</v>
+        <v>7.077881356957104e-06</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2500,10 +2500,10 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0003009295013520345</v>
+        <v>0.0003069354876369401</v>
       </c>
       <c r="C134" t="n">
-        <v>7.264109541223567e-06</v>
+        <v>7.395759577334851e-06</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2516,10 +2516,10 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002907093075823657</v>
+        <v>0.0002945099159832664</v>
       </c>
       <c r="C135" t="n">
-        <v>7.20898762897138e-06</v>
+        <v>7.296585048372289e-06</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2532,10 +2532,10 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002650943948765073</v>
+        <v>0.0002695234811786928</v>
       </c>
       <c r="C136" t="n">
-        <v>6.537890487061279e-06</v>
+        <v>6.633480643097727e-06</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -2548,10 +2548,10 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0002123457068919922</v>
+        <v>0.0002130434840345107</v>
       </c>
       <c r="C137" t="n">
-        <v>5.41680960561841e-06</v>
+        <v>5.423876549092267e-06</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001509318030536375</v>
+        <v>0.0001549261055847976</v>
       </c>
       <c r="C138" t="n">
-        <v>3.841975873408863e-06</v>
+        <v>3.924287957916034e-06</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -2580,10 +2580,10 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0001021174200618176</v>
+        <v>0.0001037591639178373</v>
       </c>
       <c r="C139" t="n">
-        <v>2.725101368617995e-06</v>
+        <v>2.757232689435889e-06</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2596,10 +2596,10 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>8.277076788107198e-05</v>
+        <v>8.368662068400456e-05</v>
       </c>
       <c r="C140" t="n">
-        <v>2.390005843298764e-06</v>
+        <v>2.415807020760483e-06</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -2612,10 +2612,10 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>6.759396677206918e-05</v>
+        <v>6.848494319271213e-05</v>
       </c>
       <c r="C141" t="n">
-        <v>1.842203611044869e-06</v>
+        <v>1.858927220582628e-06</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2628,10 +2628,10 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>5.708677261999796e-05</v>
+        <v>5.810167886054775e-05</v>
       </c>
       <c r="C142" t="n">
-        <v>1.687020614101144e-06</v>
+        <v>1.703342410072463e-06</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -2644,10 +2644,10 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>6.336293085108886e-05</v>
+        <v>6.370089733542292e-05</v>
       </c>
       <c r="C143" t="n">
-        <v>1.888198649000581e-06</v>
+        <v>1.899902454738775e-06</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2660,10 +2660,10 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002379096170875561</v>
+        <v>0.0002407351444336984</v>
       </c>
       <c r="C144" t="n">
-        <v>6.175919049113167e-06</v>
+        <v>6.234631568956492e-06</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -2676,10 +2676,10 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0004504077225360982</v>
+        <v>0.0004550744425370752</v>
       </c>
       <c r="C145" t="n">
-        <v>1.038557427293634e-05</v>
+        <v>1.049457389250486e-05</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2692,10 +2692,10 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0005004859231322117</v>
+        <v>0.000503202029921632</v>
       </c>
       <c r="C146" t="n">
-        <v>1.179571155928384e-05</v>
+        <v>1.185615206338863e-05</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -2708,10 +2708,10 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.000527214316825175</v>
+        <v>0.0005322865568016408</v>
       </c>
       <c r="C147" t="n">
-        <v>1.261108422251219e-05</v>
+        <v>1.271421358440015e-05</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -2724,10 +2724,10 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0005162870281401409</v>
+        <v>0.000519649956726188</v>
       </c>
       <c r="C148" t="n">
-        <v>1.234520566069473e-05</v>
+        <v>1.241444102994963e-05</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -2740,10 +2740,10 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0005152596757638751</v>
+        <v>0.0005169584516348936</v>
       </c>
       <c r="C149" t="n">
-        <v>1.230789379332288e-05</v>
+        <v>1.233494623310781e-05</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -2756,10 +2756,10 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006370901440849822</v>
+        <v>0.0006386272365307753</v>
       </c>
       <c r="C150" t="n">
-        <v>1.501397153528914e-05</v>
+        <v>1.505286389382083e-05</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -2772,10 +2772,10 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0006660962170282508</v>
+        <v>0.0006671309475854316</v>
       </c>
       <c r="C151" t="n">
-        <v>1.557750529474422e-05</v>
+        <v>1.560085537581511e-05</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -2788,10 +2788,10 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006643753868759688</v>
+        <v>0.0006677119708404409</v>
       </c>
       <c r="C152" t="n">
-        <v>1.561549745594235e-05</v>
+        <v>1.568860468532959e-05</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -2804,10 +2804,10 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006731160622428691</v>
+        <v>0.0006758320094886558</v>
       </c>
       <c r="C153" t="n">
-        <v>1.564493706530242e-05</v>
+        <v>1.570911688684867e-05</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -2820,10 +2820,10 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006800767124307872</v>
+        <v>0.0006789863124467485</v>
       </c>
       <c r="C154" t="n">
-        <v>1.592041012706686e-05</v>
+        <v>1.589654972522722e-05</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -2836,10 +2836,10 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006715320273751088</v>
+        <v>0.0006742125499441976</v>
       </c>
       <c r="C155" t="n">
-        <v>1.571304459365193e-05</v>
+        <v>1.578939308494547e-05</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -2852,10 +2852,10 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.000659560987063785</v>
+        <v>0.0006600053620363425</v>
       </c>
       <c r="C156" t="n">
-        <v>1.529393261142999e-05</v>
+        <v>1.530878609505554e-05</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -2868,10 +2868,10 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005508539665188287</v>
+        <v>0.000552112953453812</v>
       </c>
       <c r="C157" t="n">
-        <v>1.26553307693197e-05</v>
+        <v>1.268241873959212e-05</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -2884,10 +2884,10 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004054852294850713</v>
+        <v>0.0004065976439112983</v>
       </c>
       <c r="C158" t="n">
-        <v>9.772952663213757e-06</v>
+        <v>9.794859238988367e-06</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -2900,10 +2900,10 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002949499070472892</v>
+        <v>0.0002959761483420547</v>
       </c>
       <c r="C159" t="n">
-        <v>6.981455263478608e-06</v>
+        <v>7.010706759410069e-06</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -2916,10 +2916,10 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0003081001836791955</v>
+        <v>0.0003104766367252959</v>
       </c>
       <c r="C160" t="n">
-        <v>7.549398572317362e-06</v>
+        <v>7.59374754113571e-06</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -2932,10 +2932,10 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0002369439858325341</v>
+        <v>0.0002393226222169926</v>
       </c>
       <c r="C161" t="n">
-        <v>5.679557498405909e-06</v>
+        <v>5.727782112627539e-06</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -2948,10 +2948,10 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0002368313524859272</v>
+        <v>0.0002396511148972813</v>
       </c>
       <c r="C162" t="n">
-        <v>5.741031900819886e-06</v>
+        <v>5.802732653917647e-06</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -2964,10 +2964,10 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0002293675599069072</v>
+        <v>0.0002294064655481808</v>
       </c>
       <c r="C163" t="n">
-        <v>5.505839670840822e-06</v>
+        <v>5.510243726678211e-06</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -2980,10 +2980,10 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0002104653051077955</v>
+        <v>0.0002118385547167838</v>
       </c>
       <c r="C164" t="n">
-        <v>5.111781570519635e-06</v>
+        <v>5.132124669331203e-06</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -2996,10 +2996,10 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001961716543723429</v>
+        <v>0.0001960657073210968</v>
       </c>
       <c r="C165" t="n">
-        <v>4.882557035887978e-06</v>
+        <v>4.882733622551409e-06</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -3012,10 +3012,10 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001869904868837698</v>
+        <v>0.0001874755205652943</v>
       </c>
       <c r="C166" t="n">
-        <v>4.864641267779169e-06</v>
+        <v>4.872613139463907e-06</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -3028,10 +3028,10 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001786034852003999</v>
+        <v>0.0001797932933027008</v>
       </c>
       <c r="C167" t="n">
-        <v>4.35483485543111e-06</v>
+        <v>4.377366616900808e-06</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3044,10 +3044,10 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001505852964449694</v>
+        <v>0.000151729320505196</v>
       </c>
       <c r="C168" t="n">
-        <v>3.733987269229029e-06</v>
+        <v>3.754351438961044e-06</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3060,10 +3060,10 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001353089877302645</v>
+        <v>0.0001358085337158742</v>
       </c>
       <c r="C169" t="n">
-        <v>3.300480161443944e-06</v>
+        <v>3.311156665932673e-06</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -3076,10 +3076,10 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>8.628994435739832e-05</v>
+        <v>8.61640228317054e-05</v>
       </c>
       <c r="C170" t="n">
-        <v>2.441347085037138e-06</v>
+        <v>2.441827263407993e-06</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3092,10 +3092,10 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>6.351694583518737e-05</v>
+        <v>6.37515839921197e-05</v>
       </c>
       <c r="C171" t="n">
-        <v>1.710764874932582e-06</v>
+        <v>1.71586285469708e-06</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3108,10 +3108,10 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>6.981291499272825e-05</v>
+        <v>6.983103104795888e-05</v>
       </c>
       <c r="C172" t="n">
-        <v>1.944414579462254e-06</v>
+        <v>1.944956847517937e-06</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3124,10 +3124,10 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>9.399569529924109e-05</v>
+        <v>9.427694951520282e-05</v>
       </c>
       <c r="C173" t="n">
-        <v>2.867041896384136e-06</v>
+        <v>2.869217102863531e-06</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3140,10 +3140,10 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0001218156140864119</v>
+        <v>0.0001223251598150046</v>
       </c>
       <c r="C174" t="n">
-        <v>3.236524847656474e-06</v>
+        <v>3.251250811977008e-06</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -3156,10 +3156,10 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0001338999073151358</v>
+        <v>0.0001337531144688743</v>
       </c>
       <c r="C175" t="n">
-        <v>4.044747680089972e-06</v>
+        <v>4.054160671920855e-06</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -3172,10 +3172,10 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0001835483887332382</v>
+        <v>0.0001838822404205091</v>
       </c>
       <c r="C176" t="n">
-        <v>5.820774556739693e-06</v>
+        <v>5.825184211926461e-06</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -3188,10 +3188,10 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0002757597748727502</v>
+        <v>0.0002757224019771057</v>
       </c>
       <c r="C177" t="n">
-        <v>7.877321259963538e-06</v>
+        <v>7.890115930234627e-06</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -3204,10 +3204,10 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0003278238036143371</v>
+        <v>0.0003268707977405368</v>
       </c>
       <c r="C178" t="n">
-        <v>9.694294418428982e-06</v>
+        <v>9.67894491971284e-06</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -3220,10 +3220,10 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004014542491366684</v>
+        <v>0.0004008363756407143</v>
       </c>
       <c r="C179" t="n">
-        <v>1.12354568104308e-05</v>
+        <v>1.123803141578486e-05</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -3236,10 +3236,10 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005352945659019833</v>
+        <v>0.0005340795701133519</v>
       </c>
       <c r="C180" t="n">
-        <v>9.539155909120014e-06</v>
+        <v>9.531183902138036e-06</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -3252,10 +3252,10 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0008043887376760488</v>
+        <v>0.0008055981731951681</v>
       </c>
       <c r="C181" t="n">
-        <v>2.067098158059563e-05</v>
+        <v>2.071353179827597e-05</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3268,10 +3268,10 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001032920282118864</v>
+        <v>0.001028524319429948</v>
       </c>
       <c r="C182" t="n">
-        <v>2.633447603935776e-05</v>
+        <v>2.628457785206072e-05</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -3284,10 +3284,10 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.0013449249885156</v>
+        <v>0.001344674830566008</v>
       </c>
       <c r="C183" t="n">
-        <v>3.129582877008734e-05</v>
+        <v>3.129908174991454e-05</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -3300,10 +3300,10 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001581216924535594</v>
+        <v>0.001581597145710941</v>
       </c>
       <c r="C184" t="n">
-        <v>3.633916578686647e-05</v>
+        <v>3.634988164693762e-05</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3316,10 +3316,10 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001539875358556875</v>
+        <v>0.001543546904439715</v>
       </c>
       <c r="C185" t="n">
-        <v>3.436429859090065e-05</v>
+        <v>3.444996679523391e-05</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -3332,10 +3332,10 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001517699344614204</v>
+        <v>0.001517782795071599</v>
       </c>
       <c r="C186" t="n">
-        <v>3.431432051645466e-05</v>
+        <v>3.432966190259711e-05</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3348,10 +3348,10 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.001426112228252969</v>
+        <v>0.001425672430445999</v>
       </c>
       <c r="C187" t="n">
-        <v>3.256269379613996e-05</v>
+        <v>3.256166470037983e-05</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -3364,10 +3364,10 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001237099456439774</v>
+        <v>0.001239110422598792</v>
       </c>
       <c r="C188" t="n">
-        <v>2.733138045271675e-05</v>
+        <v>2.737529306111253e-05</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -3380,10 +3380,10 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001175125633196067</v>
+        <v>0.001176216428211216</v>
       </c>
       <c r="C189" t="n">
-        <v>2.617066692579437e-05</v>
+        <v>2.618702128521178e-05</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -3396,10 +3396,10 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001008860858740865</v>
+        <v>0.001008441410623053</v>
       </c>
       <c r="C190" t="n">
-        <v>2.253891541621544e-05</v>
+        <v>2.253392779857131e-05</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -3412,10 +3412,10 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0008024534651359256</v>
+        <v>0.0008026935966843711</v>
       </c>
       <c r="C191" t="n">
-        <v>1.801503001862242e-05</v>
+        <v>1.801975194343811e-05</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -3428,10 +3428,10 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0006745797409200737</v>
+        <v>0.0006760600292517717</v>
       </c>
       <c r="C192" t="n">
-        <v>1.533520754032583e-05</v>
+        <v>1.536305849821381e-05</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3444,10 +3444,10 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0005054053635821784</v>
+        <v>0.0005057066404334942</v>
       </c>
       <c r="C193" t="n">
-        <v>8.300525334340274e-06</v>
+        <v>8.307580567308653e-06</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003453706871969044</v>
+        <v>0.0003454764588730777</v>
       </c>
       <c r="C194" t="n">
-        <v>8.066889985575434e-06</v>
+        <v>8.06850263223697e-06</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -3476,10 +3476,10 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0002130060643840449</v>
+        <v>0.0002138518661143487</v>
       </c>
       <c r="C195" t="n">
-        <v>5.335463417650505e-06</v>
+        <v>5.347171789669514e-06</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3492,10 +3492,10 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0002145117916482188</v>
+        <v>0.00021425566116242</v>
       </c>
       <c r="C196" t="n">
-        <v>5.205881308622086e-06</v>
+        <v>5.202834538729542e-06</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -3508,10 +3508,10 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0001619841755045763</v>
+        <v>0.0001619310817411895</v>
       </c>
       <c r="C197" t="n">
-        <v>4.104897341184386e-06</v>
+        <v>4.100289852449041e-06</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -3524,10 +3524,10 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0001532470645362727</v>
+        <v>0.0001526148791446537</v>
       </c>
       <c r="C198" t="n">
-        <v>3.772116680125377e-06</v>
+        <v>3.757482064156623e-06</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -3540,10 +3540,10 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.00014398361320979</v>
+        <v>0.0001439941481266084</v>
       </c>
       <c r="C199" t="n">
-        <v>3.562741246787281e-06</v>
+        <v>3.563587212300266e-06</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -3556,10 +3556,10 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0002429940708977036</v>
+        <v>0.0002431822841067035</v>
       </c>
       <c r="C200" t="n">
-        <v>6.095883973897378e-06</v>
+        <v>6.099191629891149e-06</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -3572,10 +3572,10 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0001876402190286787</v>
+        <v>0.000187562044025708</v>
       </c>
       <c r="C201" t="n">
-        <v>4.359419205874858e-06</v>
+        <v>4.356065192017154e-06</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -3588,10 +3588,10 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002950233952544847</v>
+        <v>0.0002952426843518269</v>
       </c>
       <c r="C202" t="n">
-        <v>7.324525725537373e-06</v>
+        <v>7.325752178660145e-06</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -3604,10 +3604,10 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002801230900247097</v>
+        <v>0.0002799539411216511</v>
       </c>
       <c r="C203" t="n">
-        <v>6.953077088003923e-06</v>
+        <v>6.955108330019738e-06</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -3620,10 +3620,10 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0002690762163659159</v>
+        <v>0.0002698937364061351</v>
       </c>
       <c r="C204" t="n">
-        <v>6.754520415808741e-06</v>
+        <v>6.773181919850186e-06</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -3636,10 +3636,10 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0002661035532156613</v>
+        <v>0.0002661728964720266</v>
       </c>
       <c r="C205" t="n">
-        <v>6.64737430752726e-06</v>
+        <v>6.643767239644083e-06</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -3652,10 +3652,10 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0002602225517699722</v>
+        <v>0.0002591593385591818</v>
       </c>
       <c r="C206" t="n">
-        <v>6.585007600053643e-06</v>
+        <v>6.575235861992024e-06</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -3668,10 +3668,10 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0002468908154376682</v>
+        <v>0.0002469097321252252</v>
       </c>
       <c r="C207" t="n">
-        <v>5.837543212123581e-06</v>
+        <v>5.838543057736661e-06</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002499491381408085</v>
+        <v>0.0002494777160791864</v>
       </c>
       <c r="C208" t="n">
-        <v>6.221420331943708e-06</v>
+        <v>6.213427990538795e-06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -3700,10 +3700,10 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0001473720761739328</v>
+        <v>0.0001480727274824221</v>
       </c>
       <c r="C209" t="n">
-        <v>3.543645345663989e-06</v>
+        <v>3.557752870889933e-06</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -3716,10 +3716,10 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>6.462568092803534e-05</v>
+        <v>6.495588499746181e-05</v>
       </c>
       <c r="C210" t="n">
-        <v>1.851014077524145e-06</v>
+        <v>1.861165743475088e-06</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -3732,10 +3732,10 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>4.152084343061927e-05</v>
+        <v>4.160174954675669e-05</v>
       </c>
       <c r="C211" t="n">
-        <v>1.320861879358226e-06</v>
+        <v>1.32230434097638e-06</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -3748,10 +3748,10 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>5.813677506437335e-05</v>
+        <v>5.835443964257037e-05</v>
       </c>
       <c r="C212" t="n">
-        <v>1.572996954305474e-06</v>
+        <v>1.579071352500367e-06</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -3764,10 +3764,10 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>3.656677237071036e-05</v>
+        <v>3.628362716844796e-05</v>
       </c>
       <c r="C213" t="n">
-        <v>1.121395320913172e-06</v>
+        <v>1.13031881784625e-06</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -3780,10 +3780,10 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>2.827001390205653e-05</v>
+        <v>2.816616717786715e-05</v>
       </c>
       <c r="C214" t="n">
-        <v>9.441880623237072e-07</v>
+        <v>9.576250668311064e-07</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -3796,10 +3796,10 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>2.459321396886191e-05</v>
+        <v>2.448997106495252e-05</v>
       </c>
       <c r="C215" t="n">
-        <v>8.224396774633243e-07</v>
+        <v>8.214264955252953e-07</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -3812,10 +3812,10 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>2.292480692273231e-05</v>
+        <v>2.289399002218816e-05</v>
       </c>
       <c r="C216" t="n">
-        <v>8.151199942247366e-07</v>
+        <v>8.150521165884153e-07</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -3828,10 +3828,10 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>2.238485715656257e-05</v>
+        <v>2.283365182682441e-05</v>
       </c>
       <c r="C217" t="n">
-        <v>8.092984461665724e-07</v>
+        <v>8.132839983732441e-07</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -3844,10 +3844,10 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>2.721372409155437e-05</v>
+        <v>2.689078636727987e-05</v>
       </c>
       <c r="C218" t="n">
-        <v>9.353268281823746e-07</v>
+        <v>9.28175488816142e-07</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -3860,10 +3860,10 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>2.72231168072582e-05</v>
+        <v>2.73695940526254e-05</v>
       </c>
       <c r="C219" t="n">
-        <v>9.572256870240536e-07</v>
+        <v>9.579344462423645e-07</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -3876,10 +3876,10 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>3.038806154693012e-05</v>
+        <v>3.038054127051847e-05</v>
       </c>
       <c r="C220" t="n">
-        <v>9.0976207003613e-07</v>
+        <v>9.078342551054784e-07</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -3892,10 +3892,10 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>3.50675826802906e-05</v>
+        <v>3.519945292857943e-05</v>
       </c>
       <c r="C221" t="n">
-        <v>1.062550885234915e-06</v>
+        <v>1.064469138589667e-06</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
